--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A37FA6C-45C1-4D4C-AE87-660EDF20F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E38CC0-B1EB-489E-A55E-917AA908BA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupp_1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E38CC0-B1EB-489E-A55E-917AA908BA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF191FD-2A3B-46DE-B8D4-C13D0463B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupp_1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Küssa</t>
   </si>
@@ -125,6 +125,69 @@
   </si>
   <si>
     <t>proov3</t>
+  </si>
+  <si>
+    <t>Valik1</t>
+  </si>
+  <si>
+    <t>Valik2</t>
+  </si>
+  <si>
+    <t>Vlaik3</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>õlu</t>
+  </si>
+  <si>
+    <t>valik3</t>
+  </si>
+  <si>
+    <t>Luts</t>
+  </si>
+  <si>
+    <t>Köstrihärra</t>
+  </si>
+  <si>
+    <t>Toots</t>
+  </si>
+  <si>
+    <t>Silinder</t>
+  </si>
+  <si>
+    <t>Trapets</t>
+  </si>
+  <si>
+    <t>Võrdhaarne trapets</t>
+  </si>
+  <si>
+    <t>Gravitatsioonikiirendus</t>
+  </si>
+  <si>
+    <t>Kliirensikiirendus</t>
+  </si>
+  <si>
+    <t>Keskringjoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puutuja </t>
+  </si>
+  <si>
+    <t>Keskristsirge</t>
+  </si>
+  <si>
+    <t>Maksim</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Galileo</t>
+  </si>
+  <si>
+    <t>Kiirendusvõistlus</t>
   </si>
 </sst>
 </file>
@@ -485,20 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +569,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -517,18 +589,36 @@
         <v>8</v>
       </c>
       <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -541,20 +631,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,59 +654,116 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lootu\OneDrive\Desktop\Github\vendingprojekt-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF191FD-2A3B-46DE-B8D4-C13D0463B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8B719-47EF-4A3D-B3C6-CBB261B2616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20868" windowHeight="12012" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupp_1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Küssa</t>
   </si>
@@ -133,18 +133,12 @@
     <t>Valik2</t>
   </si>
   <si>
-    <t>Vlaik3</t>
-  </si>
-  <si>
     <t>uni</t>
   </si>
   <si>
     <t>õlu</t>
   </si>
   <si>
-    <t>valik3</t>
-  </si>
-  <si>
     <t>Luts</t>
   </si>
   <si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t>Kiirendusvõistlus</t>
+  </si>
+  <si>
+    <t>Valik3</t>
   </si>
 </sst>
 </file>
@@ -551,17 +548,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="74.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,13 +572,13 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -592,16 +589,16 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -618,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -633,20 +630,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="102.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,13 +657,13 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -674,19 +671,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -694,19 +691,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -714,19 +711,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -734,19 +731,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -754,13 +751,13 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -775,18 +772,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.7109375" customWidth="1"/>
+    <col min="1" max="1" width="96.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -808,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -819,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -830,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -838,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -846,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lootu\OneDrive\Desktop\Github\vendingprojekt-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8B719-47EF-4A3D-B3C6-CBB261B2616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A5D2C-F799-414C-9261-D701E1AFCEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="20868" windowHeight="12012" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupp_1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Küssa</t>
   </si>
@@ -551,14 +551,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -630,20 +630,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="102.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -770,20 +770,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.6640625" customWidth="1"/>
+    <col min="1" max="1" width="96.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,10 +794,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -804,8 +816,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -815,8 +830,11 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -826,29 +844,41 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A5D2C-F799-414C-9261-D701E1AFCEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C77A7-0780-4591-AE43-A44359A39360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grupp_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Grupp_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Grupp_3" sheetId="3" r:id="rId3"/>
+    <sheet name="READ ME" sheetId="4" r:id="rId1"/>
+    <sheet name="Grupp_1" sheetId="1" r:id="rId2"/>
+    <sheet name="Grupp_2" sheetId="2" r:id="rId3"/>
+    <sheet name="Grupp_3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Küssa</t>
   </si>
@@ -115,9 +116,6 @@
     <t>See inglasest teadjamees, kes on tuntud puuviljaga vastu pead saamise läbi, pani aluse klassikalisele mehaanikale.</t>
   </si>
   <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
     <t>Jukul on 4 ragulkat, õpetaja konfiskeerib neist 75%. Mitu ragulkat on Jukul alles?</t>
   </si>
   <si>
@@ -172,26 +170,111 @@
     <t>Keskristsirge</t>
   </si>
   <si>
-    <t>Maksim</t>
-  </si>
-  <si>
-    <t>Einstein</t>
-  </si>
-  <si>
-    <t>Galileo</t>
-  </si>
-  <si>
     <t>Kiirendusvõistlus</t>
   </si>
   <si>
     <t>Valik3</t>
+  </si>
+  <si>
+    <t>Pilt</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Sir Hiram Stevens Maxim</t>
+  </si>
+  <si>
+    <t>Sir Isaac Newton</t>
+  </si>
+  <si>
+    <t>Küsimuste lisamiseks täida järgmistel lehtede olevaid tabeleid</t>
+  </si>
+  <si>
+    <t>Grupp 1 on vanustele &lt;=12</t>
+  </si>
+  <si>
+    <t>Grupp 3 on vasutele &gt;=19</t>
+  </si>
+  <si>
+    <t>Grupp 2 on vanustele 13- 18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kui soovid küsimuse kõrval kuvada pilti, märgi "1" tulpa "pilt" ja lisa .jpg pildifail kasuta "images". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pildifaili nimi peab olema vormis "&lt;grupi number&gt;_&lt;küsimuse rea number exceli failis&gt;.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>Näited:</t>
+  </si>
+  <si>
+    <t>2_6.jpg</t>
+  </si>
+  <si>
+    <t>3_14.jpg</t>
+  </si>
+  <si>
+    <t>1_1.jpg</t>
+  </si>
+  <si>
+    <t>Kuidas kasutada seda Exceli faili???</t>
+  </si>
+  <si>
+    <t>Käesolev fail sisaldab müügiautomaadis kuvatavaid küsimusi. Küsimused on vanusegruppide järgi jaotatud kolmele alalehele.</t>
+  </si>
+  <si>
+    <t>Lisa küsimuse tekst, õige vastus ja kolm valet vastust. Jah/ei küsimused pole veel implementeeritud.</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>.gif</t>
+  </si>
+  <si>
+    <t>.bmp</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>.tif</t>
+  </si>
+  <si>
+    <t>Animated gif</t>
+  </si>
+  <si>
+    <t>(eelistatud)</t>
+  </si>
+  <si>
+    <t>Kasutada võib pildiformaate</t>
+  </si>
+  <si>
+    <t>Kui kustutad küsimuse tablelist, ära unusta pilti kustutamast!</t>
+  </si>
+  <si>
+    <t>Ära kustuta tabelist ridu! Kustuta vaid rea sisu!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +285,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,9 +327,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,80 +645,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1475E1-2EDD-4E2F-9383-81D9B08752D1}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -627,11 +767,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,11 +871,11 @@
     <col min="1" max="1" width="102.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,19 +883,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -671,19 +906,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -691,19 +929,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -711,19 +952,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -731,35 +975,41 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
@@ -768,12 +1018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,11 +1032,11 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,19 +1044,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -817,10 +1070,13 @@
         <v>3</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -831,10 +1087,13 @@
         <v>3</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -845,10 +1104,13 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -856,10 +1118,13 @@
         <v>20</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -867,17 +1132,23 @@
         <v>22</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
     </row>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C77A7-0780-4591-AE43-A44359A39360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E375BE-246D-42EB-AE99-BC7BF0529220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>Küssa</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Millega iseloomustatakse vedeliku voolamise laadi?</t>
   </si>
   <si>
-    <t>1 moolses ainehulgas olevate aineosakeste hulka kirjeldab kelle niumeline arv?</t>
-  </si>
-  <si>
     <t>Ei tea</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Reaktiivvõimsus</t>
   </si>
   <si>
-    <t>Võrrand, mis seob otsitavaidfunktsioone, nende tuletisi ja argumente</t>
-  </si>
-  <si>
     <t>Diferentsiaalvõrrand</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
   </si>
   <si>
     <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Sir Hiram Stevens Maxim</t>
   </si>
   <si>
     <t>Sir Isaac Newton</t>
@@ -268,6 +259,123 @@
   </si>
   <si>
     <t>Ära kustuta tabelist ridu! Kustuta vaid rea sisu!</t>
+  </si>
+  <si>
+    <t>Sir Hiram Maxim</t>
+  </si>
+  <si>
+    <t>Joondefekt</t>
+  </si>
+  <si>
+    <t>Kristallvõredes esineb mitmeid defekte. Millise millist defektiliiki tuntakse ka kui disloaktsiooni?</t>
+  </si>
+  <si>
+    <t>Punkdefekt</t>
+  </si>
+  <si>
+    <t>Pinnadefekt</t>
+  </si>
+  <si>
+    <t>Ruumidefekt</t>
+  </si>
+  <si>
+    <t>Aktiivvõimsus</t>
+  </si>
+  <si>
+    <t>Pöördvõimsus</t>
+  </si>
+  <si>
+    <t>Tootmisvõimsus</t>
+  </si>
+  <si>
+    <t>Eksponentsiaalvõrrand</t>
+  </si>
+  <si>
+    <t>Logaritmvõrrand</t>
+  </si>
+  <si>
+    <t>Diofantiline võrrand</t>
+  </si>
+  <si>
+    <t>Plancki kiirgusseadus</t>
+  </si>
+  <si>
+    <t>Gravitatsiooniseadus</t>
+  </si>
+  <si>
+    <t>Inertsiseadus</t>
+  </si>
+  <si>
+    <t>1 moolses ainehulgas olevate aineosakeste hulka kirjeldab kelle nimeline arv?</t>
+  </si>
+  <si>
+    <t>Kirchoffi</t>
+  </si>
+  <si>
+    <t>Wieni</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Boltzmani konstandiga</t>
+  </si>
+  <si>
+    <t>Rydbergi konstandiga</t>
+  </si>
+  <si>
+    <t>Hessi seadusega</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>e^2x</t>
+  </si>
+  <si>
+    <t>e^e</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest füüsikaseadustest, -printsiipidest või võrranditest on peamiselt seotud elektrotehnikaga?</t>
+  </si>
+  <si>
+    <t>Kirchoffi seadus</t>
+  </si>
+  <si>
+    <t>Langmuiri võrrand</t>
+  </si>
+  <si>
+    <t>Van der Waalsi jõud</t>
+  </si>
+  <si>
+    <t>Daltoni seadus</t>
+  </si>
+  <si>
+    <t>Tõmbel ristsuunas ahenemise suhe telgsuunas pikenemisele on tuntud</t>
+  </si>
+  <si>
+    <t>Poissoni tegurina</t>
+  </si>
+  <si>
+    <t>joonpaisumistegurina</t>
+  </si>
+  <si>
+    <t>pingeintensiivsustegurina</t>
+  </si>
+  <si>
+    <t>hõõrdetegurina</t>
+  </si>
+  <si>
+    <t>Võrrand, mis seob otsitavaid funktsioone, nende tuletisi ja argumente on tuntud kui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piltide reso võib olla kuni </t>
+  </si>
+  <si>
+    <t>1920 x 600</t>
+  </si>
+  <si>
+    <t>Väiksem on ok</t>
   </si>
 </sst>
 </file>
@@ -646,118 +754,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1475E1-2EDD-4E2F-9383-81D9B08752D1}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,16 +908,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -809,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -829,7 +948,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -849,7 +968,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,16 +1002,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -903,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -923,19 +1042,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -946,19 +1065,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -969,19 +1088,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -992,24 +1111,47 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
@@ -1020,19 +1162,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1044,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1064,10 +1207,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1081,10 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1095,13 +1250,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1112,10 +1273,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1126,10 +1296,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1140,15 +1319,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livettu.sharepoint.com/sites/Tootmistehnika/Shared Documents/Mehhatroonika projekt/04_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{A8E375BE-246D-42EB-AE99-BC7BF0529220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BCBE0D0-FAC5-415A-8481-3430DD6F5FA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDCEA7-E078-4871-8710-479254AC6491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -770,15 +770,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1722,393 +1718,393 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
     </row>
@@ -2121,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2403,6 +2399,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -2597,15 +2602,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2618,6 +2614,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2632,14 +2636,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livettu.sharepoint.com/sites/Tootmistehnika/Shared Documents/Mehhatroonika projekt/04_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDCEA7-E078-4871-8710-479254AC6491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080113DC-20E2-45C2-821F-035B6EEA8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="286">
+  <si>
+    <t>Kuidas seda Exceli faili kasutada‽</t>
+  </si>
   <si>
     <t>Käesolev fail sisaldab müügiautomaadis kuvatavaid küsimusi. Küsimused on vanusegruppide järgi jaotatud kolmele alalehele.</t>
   </si>
@@ -124,540 +127,6 @@
   </si>
   <si>
     <t>Ära kustuta tabelist ridu! Kustuta vaid rea sisu!</t>
-  </si>
-  <si>
-    <t>Küssa</t>
-  </si>
-  <si>
-    <t>Vastus</t>
-  </si>
-  <si>
-    <t>Valik1</t>
-  </si>
-  <si>
-    <t>Valik2</t>
-  </si>
-  <si>
-    <t>Valik3</t>
-  </si>
-  <si>
-    <t>Pilt</t>
-  </si>
-  <si>
-    <t>Vanusegrupp</t>
-  </si>
-  <si>
-    <t>Mis on elu mõte?</t>
-  </si>
-  <si>
-    <t>Ei tea</t>
-  </si>
-  <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>õlu</t>
-  </si>
-  <si>
-    <t>Jukul on 4 ragulkat, õpetaja konfiskeerib neist 75%. Mitu ragulkat on Jukul alles?</t>
-  </si>
-  <si>
-    <t>Mis oli Kevades kandlemängiaja nimi?</t>
-  </si>
-  <si>
-    <t>Imelik</t>
-  </si>
-  <si>
-    <t>Luts</t>
-  </si>
-  <si>
-    <t>Köstrihärra</t>
-  </si>
-  <si>
-    <t>Toots</t>
-  </si>
-  <si>
-    <t>Nagu ruut on ristküliku alamliik, on ka romb mille alamliik?</t>
-  </si>
-  <si>
-    <t>Rööpkülik</t>
-  </si>
-  <si>
-    <t>Silinder</t>
-  </si>
-  <si>
-    <t>Trapets</t>
-  </si>
-  <si>
-    <t>Võrdhaarne trapets</t>
-  </si>
-  <si>
-    <t>Suunamuutusest tingitud kiirendus, mis on alati trajektoori kõveruskeskpunkti poole suunatud?</t>
-  </si>
-  <si>
-    <t>Kesktõmbekiirendus</t>
-  </si>
-  <si>
-    <t>Gravitatsioonikiirendus</t>
-  </si>
-  <si>
-    <t>Kliirensikiirendus</t>
-  </si>
-  <si>
-    <t>Kiirendusvõistlus</t>
-  </si>
-  <si>
-    <t>Täisnurkses kolmnurgas on kaatetitte ruutude summa võrdne mille ruuduga?</t>
-  </si>
-  <si>
-    <t>Hüpotenuusi</t>
-  </si>
-  <si>
-    <t>Keskringjoone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puutuja </t>
-  </si>
-  <si>
-    <t>Keskristsirge</t>
-  </si>
-  <si>
-    <t>See inglasest teadjamees, kes on tuntud puuviljaga vastu pead saamise läbi, pani aluse klassikalisele mehaanikale.</t>
-  </si>
-  <si>
-    <t>Sir Isaac Newton</t>
-  </si>
-  <si>
-    <t>Sir Hiram Maxim</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t>Milline järgnevatest füüsikaseadustest, -printsiipidest või võrranditest on peamiselt seotud elektrotehnikaga?</t>
-  </si>
-  <si>
-    <t>Kirchoffi seadus</t>
-  </si>
-  <si>
-    <t>Langmuiri võrrand</t>
-  </si>
-  <si>
-    <t>Van der Waalsi jõud</t>
-  </si>
-  <si>
-    <t>Daltoni seadus</t>
-  </si>
-  <si>
-    <t>Mis on elekter?</t>
-  </si>
-  <si>
-    <t>Elektronide suunatud liikumine</t>
-  </si>
-  <si>
-    <t>Prootonite tavapäratu liikumine</t>
-  </si>
-  <si>
-    <t>Neutronite vaba liikumine</t>
-  </si>
-  <si>
-    <t>Mitte ükski nendest variantidest</t>
-  </si>
-  <si>
-    <t>Mis on e^x tuletis?</t>
-  </si>
-  <si>
-    <t>e^x</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>e^2x</t>
-  </si>
-  <si>
-    <t>e^e</t>
-  </si>
-  <si>
-    <t>Millega iseloomustatakse vedeliku voolamise laadi?</t>
-  </si>
-  <si>
-    <t>Reynoldsi arvuga</t>
-  </si>
-  <si>
-    <t>Boltzmani konstandiga</t>
-  </si>
-  <si>
-    <t>Rydbergi konstandiga</t>
-  </si>
-  <si>
-    <t>Hessi seadusega</t>
-  </si>
-  <si>
-    <t>1 moolses ainehulgas olevate aineosakeste hulka kirjeldab kelle nimeline arv?</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>Kirchoffi</t>
-  </si>
-  <si>
-    <t>Wieni</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Kodutarbija maksab aktiivvõimsuse eest. Millise võimsuse eest peavad maksma vaid tööstuslikud tarbijad?</t>
-  </si>
-  <si>
-    <t>Reaktiivvõimsus</t>
-  </si>
-  <si>
-    <t>Aktiivvõimsus</t>
-  </si>
-  <si>
-    <t>Pöördvõimsus</t>
-  </si>
-  <si>
-    <t>Tootmisvõimsus</t>
-  </si>
-  <si>
-    <t>Võrrand, mis seob otsitavaid funktsioone, nende tuletisi ja argumente on tuntud kui</t>
-  </si>
-  <si>
-    <t>Diferentsiaalvõrrand</t>
-  </si>
-  <si>
-    <t>Eksponentsiaalvõrrand</t>
-  </si>
-  <si>
-    <t>Logaritmvõrrand</t>
-  </si>
-  <si>
-    <t>Diofantiline võrrand</t>
-  </si>
-  <si>
-    <t>Üks olulisemaid füüsikaseaduseid, mis väidab, et isoleeritud süsteemi energia on ajas muutumatu suurus.</t>
-  </si>
-  <si>
-    <t>Energia jäävuse seadus</t>
-  </si>
-  <si>
-    <t>Plancki kiirgusseadus</t>
-  </si>
-  <si>
-    <t>Gravitatsiooniseadus</t>
-  </si>
-  <si>
-    <t>Inertsiseadus</t>
-  </si>
-  <si>
-    <t>Joondefekt</t>
-  </si>
-  <si>
-    <t>Punkdefekt</t>
-  </si>
-  <si>
-    <t>Pinnadefekt</t>
-  </si>
-  <si>
-    <t>Ruumidefekt</t>
-  </si>
-  <si>
-    <t>Tõmbel ristsuunas ahenemise suhe telgsuunas pikenemisele on tuntud</t>
-  </si>
-  <si>
-    <t>Poissoni tegurina</t>
-  </si>
-  <si>
-    <t>joonpaisumistegurina</t>
-  </si>
-  <si>
-    <t>pingeintensiivsustegurina</t>
-  </si>
-  <si>
-    <t>hõõrdetegurina</t>
-  </si>
-  <si>
-    <t>Milline järgnevatest ühikutest ei kuulu SI ühikute süsteemi?</t>
-  </si>
-  <si>
-    <t>cd (kandela)</t>
-  </si>
-  <si>
-    <t>K (Kelvin)</t>
-  </si>
-  <si>
-    <t>A (amper)</t>
-  </si>
-  <si>
-    <t>atm (atmosfäär)</t>
-  </si>
-  <si>
-    <t>Mida mõõdetakse radiaanides?</t>
-  </si>
-  <si>
-    <t>Nurka</t>
-  </si>
-  <si>
-    <t>Ruuminurka</t>
-  </si>
-  <si>
-    <t>Nurkkiirust</t>
-  </si>
-  <si>
-    <t>Pöördenurka</t>
-  </si>
-  <si>
-    <t>Mida mõõdetakse sterradiaanides?</t>
-  </si>
-  <si>
-    <t>Mida mõõdetakse ebaharilike mõõtühikutega jalg, toll, küünar, vaks ja süld?</t>
-  </si>
-  <si>
-    <t>Pikkust</t>
-  </si>
-  <si>
-    <t>Massi</t>
-  </si>
-  <si>
-    <t>Ruumala</t>
-  </si>
-  <si>
-    <t>Temperatuuri</t>
-  </si>
-  <si>
-    <t>Millisels olekus täidab aine ühtlaselt kogu tema käsutusse antud ruumala?</t>
-  </si>
-  <si>
-    <t>Gaasilises olekus</t>
-  </si>
-  <si>
-    <t>Tahkes olekus</t>
-  </si>
-  <si>
-    <t>Vedelas olekus</t>
-  </si>
-  <si>
-    <t>Jäätunud olekus</t>
-  </si>
-  <si>
-    <t>Kui kodusea süda lööb keskmiselt 4200 korda tunnis, siis mitu korda lööb see keskmiselt minutis?</t>
-  </si>
-  <si>
-    <t>Kirjapilt |-x| annab mõista, et …</t>
-  </si>
-  <si>
-    <t>muutujat x tuleb ignoreerida</t>
-  </si>
-  <si>
-    <t>viidatakse ruutjuurele</t>
-  </si>
-  <si>
-    <t>viidatakse absoluutväärtusele</t>
-  </si>
-  <si>
-    <t>muutuja x tuleb kahekordistada</t>
-  </si>
-  <si>
-    <t>Teatrisaalis on 2000 istekohta. 85% neist asub parteris, ülejäänud rõdul. Mitu kohta on rõdul?</t>
-  </si>
-  <si>
-    <t>Milline järgnevatest arvudes jaguneb 9-ga?</t>
-  </si>
-  <si>
-    <t>Iga võrdkülgne kolmnurk on ühtlasi ka …</t>
-  </si>
-  <si>
-    <t>Võrdhaarne</t>
-  </si>
-  <si>
-    <t>Täisnurkne</t>
-  </si>
-  <si>
-    <t>Nürinurkne</t>
-  </si>
-  <si>
-    <t>Parelleelne</t>
-  </si>
-  <si>
-    <t>Mis on inimese kõige suurem elund?</t>
-  </si>
-  <si>
-    <t>Nahk</t>
-  </si>
-  <si>
-    <t>Maks</t>
-  </si>
-  <si>
-    <t>Kopsud</t>
-  </si>
-  <si>
-    <t>Aju</t>
-  </si>
-  <si>
-    <t>Milline järgnevatest ei ole elu tunnus?</t>
-  </si>
-  <si>
-    <t>Toittumine</t>
-  </si>
-  <si>
-    <t>Paljunemine</t>
-  </si>
-  <si>
-    <t>Rakkudest koosnemine</t>
-  </si>
-  <si>
-    <t>Liikumine</t>
-  </si>
-  <si>
-    <t>Joon, mis jagab Maa põhja ja lõunapoolkeraks, on …</t>
-  </si>
-  <si>
-    <t>ekvaator</t>
-  </si>
-  <si>
-    <t>meridiaan</t>
-  </si>
-  <si>
-    <t>pöörijoon</t>
-  </si>
-  <si>
-    <t>pikkusjoon</t>
-  </si>
-  <si>
-    <t>Ekvaatoriga on paralleelsed …</t>
-  </si>
-  <si>
-    <t>laiusjooned</t>
-  </si>
-  <si>
-    <t>pikkusjooned</t>
-  </si>
-  <si>
-    <t>meridiaanid</t>
-  </si>
-  <si>
-    <t>samakõrgusjooned</t>
-  </si>
-  <si>
-    <t>Maapinna samal kõrgusel asuvaid lõikeid kujutavad kaartidel …</t>
-  </si>
-  <si>
-    <t>isohüpsid</t>
-  </si>
-  <si>
-    <t>hüdroisohüpsid</t>
-  </si>
-  <si>
-    <t>isotermid</t>
-  </si>
-  <si>
-    <t>isobaarid</t>
-  </si>
-  <si>
-    <t>Kui kaardi mõõtkava on 1:50000, siis üks sentimeeter kaardil on võrdne … meetriga looduses.</t>
-  </si>
-  <si>
-    <t>Asimuut kirjeldab suunda  … suhtes.</t>
-  </si>
-  <si>
-    <t>geograafilise põhja</t>
-  </si>
-  <si>
-    <t>magneetilise põhja</t>
-  </si>
-  <si>
-    <t>Põhjanaela</t>
-  </si>
-  <si>
-    <t>kartograafilise põhja</t>
-  </si>
-  <si>
-    <t>Mida on kujutatud joonisel A?</t>
-  </si>
-  <si>
-    <t>Laminaarset voolamist</t>
-  </si>
-  <si>
-    <t>Turbulentset voolamist</t>
-  </si>
-  <si>
-    <t>Potentsiaalset voolamist</t>
-  </si>
-  <si>
-    <t>Hõõrdumiseta voolamist</t>
-  </si>
-  <si>
-    <t>Milline järgnevatest ei ole vesiniku isotoop?</t>
-  </si>
-  <si>
-    <t>Deuteerium</t>
-  </si>
-  <si>
-    <t>Triitium</t>
-  </si>
-  <si>
-    <t>Prootium</t>
-  </si>
-  <si>
-    <t>Luteetium</t>
-  </si>
-  <si>
-    <t>Mille vari langeb Kuule kuuvarjutuse ajal?</t>
-  </si>
-  <si>
-    <t>Maa</t>
-  </si>
-  <si>
-    <t>Kuu</t>
-  </si>
-  <si>
-    <t>Asteroidide</t>
-  </si>
-  <si>
-    <t>Marsi</t>
-  </si>
-  <si>
-    <t>Maa on …</t>
-  </si>
-  <si>
-    <t>Ümmargune</t>
-  </si>
-  <si>
-    <t>Lapik</t>
-  </si>
-  <si>
-    <t>Sõõriku kujuline</t>
-  </si>
-  <si>
-    <t>Hüperboloid</t>
-  </si>
-  <si>
-    <t>Milline pildil toodud geomeetriline pind oli Vennaskonna esitatud laulus Insener Garini üks lemmikuid?</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Kristallvõredes esineb mitmeid defekte. Millist defektiliiki tuntakse ka kui disloaktsiooni?</t>
-  </si>
-  <si>
-    <t>Sisestus</t>
   </si>
   <si>
     <r>
@@ -710,14 +179,788 @@
     <t>Teiste vastuste tulbad võib tühjaks jätta.</t>
   </si>
   <si>
-    <t>Kuidas seda Exceli faili kasutada‽</t>
+    <t>Küssa</t>
+  </si>
+  <si>
+    <t>Vastus</t>
+  </si>
+  <si>
+    <t>Valik1</t>
+  </si>
+  <si>
+    <t>Valik2</t>
+  </si>
+  <si>
+    <t>Valik3</t>
+  </si>
+  <si>
+    <t>Pilt</t>
+  </si>
+  <si>
+    <t>Sisestus</t>
+  </si>
+  <si>
+    <t>Vanusegrupp</t>
+  </si>
+  <si>
+    <t>Mis on elu mõte?</t>
+  </si>
+  <si>
+    <t>Ei tea</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>õlu</t>
+  </si>
+  <si>
+    <t>Jukul on 4 ragulkat, õpetaja konfiskeerib neist 75%. Mitu ragulkat on Jukul alles?</t>
+  </si>
+  <si>
+    <t>Mida mõõdetakse ebaharilike mõõtühikutega jalg, toll, küünar, vaks ja süld?</t>
+  </si>
+  <si>
+    <t>Pikkust</t>
+  </si>
+  <si>
+    <t>Massi</t>
+  </si>
+  <si>
+    <t>Ruumala</t>
+  </si>
+  <si>
+    <t>Temperatuuri</t>
+  </si>
+  <si>
+    <t>Millises olekus täidab aine ühtlaselt kogu tema käsutusse antud ruumala?</t>
+  </si>
+  <si>
+    <t>Gaasilises olekus</t>
+  </si>
+  <si>
+    <t>Tahkes olekus</t>
+  </si>
+  <si>
+    <t>Vedelas olekus</t>
+  </si>
+  <si>
+    <t>Jäätunud olekus</t>
+  </si>
+  <si>
+    <t>Kui kodusea süda lööb keskmiselt 4200 korda tunnis, siis mitu korda lööb see keskmiselt minutis?</t>
+  </si>
+  <si>
+    <t>Kirjapilt |-x| annab mõista, et …</t>
+  </si>
+  <si>
+    <t>viidatakse absoluutväärtusele</t>
+  </si>
+  <si>
+    <t>viidatakse ruutjuurele</t>
+  </si>
+  <si>
+    <t>muutujat x tuleb ignoreerida</t>
+  </si>
+  <si>
+    <t>muutuja x tuleb kahekordistada</t>
+  </si>
+  <si>
+    <t>Teatrisaalis on 2000 istekohta. 85% neist asub parteris, ülejäänud rõdul. Mitu kohta on rõdul?</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest arvudes jaguneb 9-ga?</t>
+  </si>
+  <si>
+    <t>Iga võrdkülgne kolmnurk on ühtlasi ka …</t>
+  </si>
+  <si>
+    <t>Teravnurkne</t>
+  </si>
+  <si>
+    <t>Täisnurkne</t>
+  </si>
+  <si>
+    <t>Nürinurkne</t>
+  </si>
+  <si>
+    <t>Parelleelne</t>
+  </si>
+  <si>
+    <t>Mis on inimese kõige suurem elund?</t>
+  </si>
+  <si>
+    <t>Nahk</t>
+  </si>
+  <si>
+    <t>Maks</t>
+  </si>
+  <si>
+    <t>Kopsud</t>
+  </si>
+  <si>
+    <t>Aju</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest ei ole elu tunnus?</t>
+  </si>
+  <si>
+    <t>Liikumine</t>
+  </si>
+  <si>
+    <t>Toitumine</t>
+  </si>
+  <si>
+    <t>Paljunemine</t>
+  </si>
+  <si>
+    <t>Rakkudest koosnemine</t>
+  </si>
+  <si>
+    <t>Joon, mis jagab Maa põhja ja lõunapoolkeraks, on …</t>
+  </si>
+  <si>
+    <t>ekvaator</t>
+  </si>
+  <si>
+    <t>meridiaan</t>
+  </si>
+  <si>
+    <t>pöörijoon</t>
+  </si>
+  <si>
+    <t>pikkusjoon</t>
+  </si>
+  <si>
+    <t>Ekvaatoriga on paralleelsed …</t>
+  </si>
+  <si>
+    <t>laiusjooned</t>
+  </si>
+  <si>
+    <t>pikkusjooned</t>
+  </si>
+  <si>
+    <t>meridiaanid</t>
+  </si>
+  <si>
+    <t>samakõrgusjooned</t>
+  </si>
+  <si>
+    <t>Kui kaardi mõõtkava on 1:50000, siis üks sentimeeter kaardil on võrdne … meetriga looduses.</t>
+  </si>
+  <si>
+    <t>Mille vari langeb Kuule kuuvarjutuse ajal?</t>
+  </si>
+  <si>
+    <t>Maa</t>
+  </si>
+  <si>
+    <t>Kuu</t>
+  </si>
+  <si>
+    <t>Marsi</t>
+  </si>
+  <si>
+    <t>Asteroidide</t>
+  </si>
+  <si>
+    <t>Maa on …</t>
+  </si>
+  <si>
+    <t>Ümmargune</t>
+  </si>
+  <si>
+    <t>Lapik</t>
+  </si>
+  <si>
+    <t>Sõõriku kujuline</t>
+  </si>
+  <si>
+    <t>Hüperboloid</t>
+  </si>
+  <si>
+    <t>Vaal on ...</t>
+  </si>
+  <si>
+    <t>Imetaja</t>
+  </si>
+  <si>
+    <t>Lind</t>
+  </si>
+  <si>
+    <t>Kala</t>
+  </si>
+  <si>
+    <t>Kahepaikne</t>
+  </si>
+  <si>
+    <t>Jukul on 6 õuna, ta annab pooled neist Marile. Mitu õuna jäi Jukule?</t>
+  </si>
+  <si>
+    <t>Miks on saunas kõrgemal istudes õhk kuumem kui põranda lähedal olles?</t>
+  </si>
+  <si>
+    <t>Kuumus tõuseb üles</t>
+  </si>
+  <si>
+    <t>Seal on niiskem</t>
+  </si>
+  <si>
+    <t>Põrandal on sama kuum</t>
+  </si>
+  <si>
+    <t>Külm ei saa kuumaga läbi</t>
+  </si>
+  <si>
+    <t>Arvuta: (4 x 4 + 44) : 4 + 4 =</t>
+  </si>
+  <si>
+    <t>Mitu nelinurka on joonisel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahte liiki klotsidest ehitati joonisel olev risttahukas. Väiksemad klotsid olid kõik kuubid servapikkusega 1 dm. Leia risttahuka pikkus. </t>
+  </si>
+  <si>
+    <t>15 dm</t>
+  </si>
+  <si>
+    <t>17 dm</t>
+  </si>
+  <si>
+    <t>13 dm</t>
+  </si>
+  <si>
+    <t>16 dm</t>
+  </si>
+  <si>
+    <t>Mis oli Kevades kandlemängiaja nimi?</t>
+  </si>
+  <si>
+    <t>Imelik</t>
+  </si>
+  <si>
+    <t>Luts</t>
+  </si>
+  <si>
+    <t>Köstrihärra</t>
+  </si>
+  <si>
+    <t>Toots</t>
+  </si>
+  <si>
+    <t>Nagu ruut on ristküliku alamliik, on ka romb mille alamliik?</t>
+  </si>
+  <si>
+    <t>Rööpkülik</t>
+  </si>
+  <si>
+    <t>Silinder</t>
+  </si>
+  <si>
+    <t>Trapets</t>
+  </si>
+  <si>
+    <t>Võrdhaarne trapets</t>
+  </si>
+  <si>
+    <t>Suunamuutusest tingitud kiirendus, mis on alati trajektoori kõveruskeskpunkti poole suunatud?</t>
+  </si>
+  <si>
+    <t>Kesktõmbekiirendus</t>
+  </si>
+  <si>
+    <t>Gravitatsioonikiirendus</t>
+  </si>
+  <si>
+    <t>Kliirensikiirendus</t>
+  </si>
+  <si>
+    <t>Kiirendusvõistlus</t>
+  </si>
+  <si>
+    <t>Täisnurkses kolmnurgas on kaatetite ruutude summa võrdne mille ruuduga?</t>
+  </si>
+  <si>
+    <t>Hüpotenuusi</t>
+  </si>
+  <si>
+    <t>Keskringjoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puutuja </t>
+  </si>
+  <si>
+    <t>Keskristsirge</t>
+  </si>
+  <si>
+    <t>See inglasest teadjamees, kes on tuntud puuviljaga vastu pead saamise läbi, pani aluse klassikalisele mehaanikale.</t>
+  </si>
+  <si>
+    <t>Sir Isaac Newton</t>
+  </si>
+  <si>
+    <t>Sir Hiram Maxim</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest füüsikaseadustest, -printsiipidest või võrranditest on peamiselt seotud elektrotehnikaga?</t>
+  </si>
+  <si>
+    <t>Kirchoffi seadus</t>
+  </si>
+  <si>
+    <t>Langmuiri võrrand</t>
+  </si>
+  <si>
+    <t>Van der Waalsi jõud</t>
+  </si>
+  <si>
+    <t>Daltoni seadus</t>
+  </si>
+  <si>
+    <t>Mis on elekter?</t>
+  </si>
+  <si>
+    <t>Elektronide suunatud liikumine</t>
+  </si>
+  <si>
+    <t>Prootonite tavapäratu liikumine</t>
+  </si>
+  <si>
+    <t>Neutronite vaba liikumine</t>
+  </si>
+  <si>
+    <t>Mitte ükski nendest variantidest</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest ühikutest ei kuulu SI ühikute süsteemi?</t>
+  </si>
+  <si>
+    <t>atm (atmosfäär)</t>
+  </si>
+  <si>
+    <t>cd (kandela)</t>
+  </si>
+  <si>
+    <t>K (Kelvin)</t>
+  </si>
+  <si>
+    <t>A (amper)</t>
+  </si>
+  <si>
+    <t>Mida mõõdetakse radiaanides?</t>
+  </si>
+  <si>
+    <t>Nurka</t>
+  </si>
+  <si>
+    <t>Ruuminurka</t>
+  </si>
+  <si>
+    <t>Nurkkiirust</t>
+  </si>
+  <si>
+    <t>Pöördenurka</t>
+  </si>
+  <si>
+    <t>Maapinna samal kõrgusel asuvaid lõikeid kujutavad kaartidel …</t>
+  </si>
+  <si>
+    <t>isohüpsid</t>
+  </si>
+  <si>
+    <t>hüdroisohüpsid</t>
+  </si>
+  <si>
+    <t>isotermid</t>
+  </si>
+  <si>
+    <t>isobaarid</t>
+  </si>
+  <si>
+    <t>Asimuut kirjeldab suunda  … suhtes.</t>
+  </si>
+  <si>
+    <t>magneetilise põhja</t>
+  </si>
+  <si>
+    <t>geograafilise põhja</t>
+  </si>
+  <si>
+    <t>Põhjanaela</t>
+  </si>
+  <si>
+    <t>kartograafilise põhja</t>
+  </si>
+  <si>
+    <t>Mida on kujutatud joonisel A?</t>
+  </si>
+  <si>
+    <t>Laminaarset voolamist</t>
+  </si>
+  <si>
+    <t>Turbulentset voolamist</t>
+  </si>
+  <si>
+    <t>Potentsiaalset voolamist</t>
+  </si>
+  <si>
+    <t>Hõõrdumiseta voolamist</t>
+  </si>
+  <si>
+    <t>Milline järgnevatest ei ole vesiniku isotoop?</t>
+  </si>
+  <si>
+    <t>Luteetium</t>
+  </si>
+  <si>
+    <t>Deuteerium</t>
+  </si>
+  <si>
+    <t>Triitium</t>
+  </si>
+  <si>
+    <t>Prootium</t>
+  </si>
+  <si>
+    <t>Milline pildil toodud geomeetriline pind oli Vennaskonna esitatud laulus Insener Garini üks lemmikuid?</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Millise laenguga kehad tõmbuvad?</t>
+  </si>
+  <si>
+    <t>Erinimelise</t>
+  </si>
+  <si>
+    <t>Samanimelise</t>
+  </si>
+  <si>
+    <t>Vastunimelise</t>
+  </si>
+  <si>
+    <t>Koosnimeline</t>
+  </si>
+  <si>
+    <t>Mida hüüdis Archimedes, kui ta avastas et veega saab keha ruumala mõõta?</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>Juhhei</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Yippee Ki Yay</t>
+  </si>
+  <si>
+    <t>Kes on pildil?</t>
+  </si>
+  <si>
+    <t>Robert Oppenheimer</t>
+  </si>
+  <si>
+    <t>Steven Hawking</t>
+  </si>
+  <si>
+    <t>Archimedes</t>
+  </si>
+  <si>
+    <t>Mis tingimusel avaneb funktsioon y=ax²+bx+c üles</t>
+  </si>
+  <si>
+    <t>a&gt;0</t>
+  </si>
+  <si>
+    <t>a&lt;0</t>
+  </si>
+  <si>
+    <t>a=0</t>
+  </si>
+  <si>
+    <t>b&gt;0</t>
+  </si>
+  <si>
+    <t>Kas leidub kolmnurk nurkade suurustega  A°, B° ja 60°, mille korral A° – B° = 60°?</t>
+  </si>
+  <si>
+    <t>Jah</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Võib olla</t>
+  </si>
+  <si>
+    <t>Järgmine küsimus</t>
+  </si>
+  <si>
+    <t>Kahe täisarvu summa on 1 ja nende korrutis on −6. Leia nende arvude suurim võimalik vahe.</t>
+  </si>
+  <si>
+    <t>Õppeveerandi jooksul tuli teha 5 kontrolltesti. Iga testi eest võis saada kuni 100 punkti. Jüri nelja testi keskmine tulemus oli 75 punkti. Mitu punkti võib maksimaalselt olla tema viie testi keskmine tulemus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ühesugustele kujunditele vastavad ühesugused arvud. Mitme võrra on ruudule vastav arv suurem kolmnurgale vastavast arvust? </t>
+  </si>
+  <si>
+    <t>Joonisel on kolm ühise keskpunktiga ringi ning suurima ringi neli diameetrit. Mitu protsenti suurimast ringist on tumedamaks värvitud?</t>
+  </si>
+  <si>
+    <t>Mis on e^x tuletis?</t>
+  </si>
+  <si>
+    <t>e^x</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>e^2x</t>
+  </si>
+  <si>
+    <t>e^e</t>
+  </si>
+  <si>
+    <t>Millega iseloomustatakse vedeliku voolamise laadi?</t>
+  </si>
+  <si>
+    <t>Reynoldsi arvuga</t>
+  </si>
+  <si>
+    <t>Boltzmani konstandiga</t>
+  </si>
+  <si>
+    <t>Rydbergi konstandiga</t>
+  </si>
+  <si>
+    <t>Hessi seadusega</t>
+  </si>
+  <si>
+    <t>1 moolses ainehulgas olevate aineosakeste hulka kirjeldab kelle nimeline arv?</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>Kirchoffi</t>
+  </si>
+  <si>
+    <t>Wieni</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Kodutarbija maksab aktiivvõimsuse eest. Millise võimsuse eest peavad maksma vaid tööstuslikud tarbijad?</t>
+  </si>
+  <si>
+    <t>Reaktiivvõimsus</t>
+  </si>
+  <si>
+    <t>Aktiivvõimsus</t>
+  </si>
+  <si>
+    <t>Pöördvõimsus</t>
+  </si>
+  <si>
+    <t>Tootmisvõimsus</t>
+  </si>
+  <si>
+    <t>Võrrand, mis seob otsitavaid funktsioone, nende tuletisi ja argumente on tuntud kui</t>
+  </si>
+  <si>
+    <t>Diferentsiaalvõrrand</t>
+  </si>
+  <si>
+    <t>Eksponentsiaalvõrrand</t>
+  </si>
+  <si>
+    <t>Logaritmvõrrand</t>
+  </si>
+  <si>
+    <t>Diofantiline võrrand</t>
+  </si>
+  <si>
+    <t>Üks olulisemaid füüsikaseaduseid, mis väidab, et isoleeritud süsteemi energia on ajas muutumatu suurus.</t>
+  </si>
+  <si>
+    <t>Energia jäävuse seadus</t>
+  </si>
+  <si>
+    <t>Plancki kiirgusseadus</t>
+  </si>
+  <si>
+    <t>Gravitatsiooniseadus</t>
+  </si>
+  <si>
+    <t>Inertsiseadus</t>
+  </si>
+  <si>
+    <t>Kristallvõredes esineb mitmeid defekte. Millist defektiliiki tuntakse ka kui disloaktsiooni?</t>
+  </si>
+  <si>
+    <t>Joondefekt</t>
+  </si>
+  <si>
+    <t>Punkdefekt</t>
+  </si>
+  <si>
+    <t>Pinnadefekt</t>
+  </si>
+  <si>
+    <t>Ruumidefekt</t>
+  </si>
+  <si>
+    <t>Tõmbel ristsuunas ahenemise suhe telgsuunas pikenemisele on tuntud</t>
+  </si>
+  <si>
+    <t>Poissoni tegurina</t>
+  </si>
+  <si>
+    <t>joonpaisumistegurina</t>
+  </si>
+  <si>
+    <t>pingeintensiivsustegurina</t>
+  </si>
+  <si>
+    <t>hõõrdetegurina</t>
+  </si>
+  <si>
+    <t>Mida mõõdetakse sterradiaanides?</t>
+  </si>
+  <si>
+    <t>Mida tähistab number materjali tähises S235</t>
+  </si>
+  <si>
+    <t>Voolepiir</t>
+  </si>
+  <si>
+    <t>Kõvadus</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Maksimaalne tugevus</t>
+  </si>
+  <si>
+    <t>See imeraamat aitab inseneri igas hetkes...</t>
+  </si>
+  <si>
+    <t>Mehaanikainseneri käsiraamat</t>
+  </si>
+  <si>
+    <t>Piibel</t>
+  </si>
+  <si>
+    <t>Tõde ja õigus</t>
+  </si>
+  <si>
+    <t>Aabits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelinurga ABCD küljel AB asub punkt E. Teada on, et AD = DC = CB = DE ning nurk DAB on suurusega 70° ja nurk ADC on suurusega 100°. Leia nurga CBA suurus.  </t>
+  </si>
+  <si>
+    <t>50°</t>
+  </si>
+  <si>
+    <t>80°</t>
+  </si>
+  <si>
+    <t>40°</t>
+  </si>
+  <si>
+    <t>60°</t>
+  </si>
+  <si>
+    <t>Mis on Lõuna-Korea suurima tehnoloogiaettevõtte nimi?</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Mis aastal leiutas toote WD40 keemik Norm Larsen?</t>
+  </si>
+  <si>
+    <t>1930. aastal anti Albert Einsteinile ja kolleegile välja USA patent 1781541. Milleks see mõeldud oli?</t>
+  </si>
+  <si>
+    <t>Külmik</t>
+  </si>
+  <si>
+    <t>Mikrolaineahi</t>
+  </si>
+  <si>
+    <t>Külmsuitsukapp</t>
+  </si>
+  <si>
+    <t>Pesumasin</t>
+  </si>
+  <si>
+    <t>Kes leiutas esimest lambipirni?</t>
+  </si>
+  <si>
+    <t>Humphry Davy</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Mis noot on punases ringis?</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>La</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +992,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -770,11 +1019,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,136 +1351,136 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1232,16 +1491,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BEA62-F630-4F6C-A633-F27681A3BC42}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
@@ -1252,45 +1511,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1304,18 +1563,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3">
@@ -1330,19 +1589,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1356,19 +1615,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1382,18 +1641,18 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
         <v>70</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>75</v>
       </c>
       <c r="F6">
@@ -1408,19 +1667,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1434,18 +1693,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="B8" s="6">
         <v>300</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>85</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>200</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>250</v>
       </c>
       <c r="F8">
@@ -1460,18 +1719,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6">
         <v>4374</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>4474</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>8735</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>2857</v>
       </c>
       <c r="F9">
@@ -1486,19 +1745,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>143</v>
+        <v>58</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1512,19 +1771,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1538,19 +1797,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" t="s">
-        <v>152</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1564,19 +1823,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
+        <v>73</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1590,19 +1849,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" t="s">
-        <v>163</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1616,18 +1875,18 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="B15" s="6">
         <v>500</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>100</v>
       </c>
       <c r="F15">
@@ -1642,19 +1901,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
-        <v>188</v>
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1668,19 +1927,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" t="s">
-        <v>194</v>
+        <v>89</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1689,6 +1948,188 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6">
+        <v>244</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
@@ -1700,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,45 +2161,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1772,19 +2213,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1798,19 +2239,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1824,19 +2265,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1850,19 +2291,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1876,19 +2317,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1902,19 +2343,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1928,19 +2369,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1954,19 +2395,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1980,19 +2421,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2006,19 +2447,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2032,19 +2473,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2058,19 +2499,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2084,27 +2525,261 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
         <v>195</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>196</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
         <v>197</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C19" t="s">
         <v>198</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D19" t="s">
         <v>199</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="6">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6">
+        <v>90</v>
+      </c>
+      <c r="D22" s="6">
+        <v>85</v>
+      </c>
+      <c r="E22" s="6">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="6">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
     </row>
@@ -2115,16 +2790,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -2135,45 +2810,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2187,19 +2862,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2213,19 +2888,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2239,19 +2914,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2265,19 +2940,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2291,19 +2966,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2317,19 +2992,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2343,19 +3018,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2369,19 +3044,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2390,6 +3065,188 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1953</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1937</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1985</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2001</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
     </row>
@@ -2408,6 +3265,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -2602,17 +3470,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
   <ds:schemaRefs>
@@ -2622,6 +3479,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2638,21 +3506,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livettu.sharepoint.com/sites/Tootmistehnika/Shared Documents/Mehhatroonika projekt/04_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080113DC-20E2-45C2-821F-035B6EEA8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D5D05F-125F-400E-AA3E-24DB51536292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
     <sheet name="Grupp_1" sheetId="1" r:id="rId2"/>
     <sheet name="Grupp_2" sheetId="2" r:id="rId3"/>
-    <sheet name="Grupp_3" sheetId="3" r:id="rId4"/>
+    <sheet name="Grupp_3" sheetId="5" r:id="rId4"/>
+    <sheet name="old_Grupp_3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="364">
   <si>
     <t>Kuidas seda Exceli faili kasutada‽</t>
   </si>
@@ -851,9 +852,6 @@
     <t>Mida mõõdetakse sterradiaanides?</t>
   </si>
   <si>
-    <t>Mida tähistab number materjali tähises S235</t>
-  </si>
-  <si>
     <t>Voolepiir</t>
   </si>
   <si>
@@ -929,9 +927,6 @@
     <t>Pesumasin</t>
   </si>
   <si>
-    <t>Kes leiutas esimest lambipirni?</t>
-  </si>
-  <si>
     <t>Humphry Davy</t>
   </si>
   <si>
@@ -954,13 +949,253 @@
   </si>
   <si>
     <t>La</t>
+  </si>
+  <si>
+    <t>Kes leiutas esimest elektrilambi?</t>
+  </si>
+  <si>
+    <t>Mida tähistab number materjali tähises S235?</t>
+  </si>
+  <si>
+    <t>Will fly-back transformer work with DC current ?</t>
+  </si>
+  <si>
+    <t>Only with pulses</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Depends on DC current value</t>
+  </si>
+  <si>
+    <t>What parameter cause heating up the wire in DC circuit ?</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Altitude above sea level</t>
+  </si>
+  <si>
+    <t>What are the names of the following connections for the three phase-windings of an induction motor?</t>
+  </si>
+  <si>
+    <t>Star and delta</t>
+  </si>
+  <si>
+    <t>Gamma and beta</t>
+  </si>
+  <si>
+    <t>Open and Closed</t>
+  </si>
+  <si>
+    <t>Crossed and wide</t>
+  </si>
+  <si>
+    <t>What is the name of the signal used to correct Current reference on this circuitry?</t>
+  </si>
+  <si>
+    <t>Speed feedback</t>
+  </si>
+  <si>
+    <t>Speed loop</t>
+  </si>
+  <si>
+    <t>Error reference</t>
+  </si>
+  <si>
+    <t>Reference control</t>
+  </si>
+  <si>
+    <t>In variable frequency drives which method is used for V/f control?</t>
+  </si>
+  <si>
+    <t>Scalar control</t>
+  </si>
+  <si>
+    <t>PID control</t>
+  </si>
+  <si>
+    <t>Vector control</t>
+  </si>
+  <si>
+    <t>Voltage-torque control</t>
+  </si>
+  <si>
+    <t>For which type capacitor applying reverse polarity voltage is not allowed?</t>
+  </si>
+  <si>
+    <t>Electrolytic capacitors</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor</t>
+  </si>
+  <si>
+    <t>Film capacitor</t>
+  </si>
+  <si>
+    <t>Flux capacitor</t>
+  </si>
+  <si>
+    <t>What does a rectifier do?</t>
+  </si>
+  <si>
+    <t>Converts AC to DC</t>
+  </si>
+  <si>
+    <t>Converts DC to AC</t>
+  </si>
+  <si>
+    <t>Converts AC to AC</t>
+  </si>
+  <si>
+    <t>Converts DC to DC</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>How is the missing part called?</t>
+  </si>
+  <si>
+    <t>Leidke sünkroongeneraatori pöörlemiskiirust (Ns). Antud on pooluste arv (p) 4 ning sagedus (f) 50 Hz</t>
+  </si>
+  <si>
+    <t>Millele tarnib ABB Eesti Mootorite ja generaatorite tehas generaatoreid?</t>
+  </si>
+  <si>
+    <t>Laevadele</t>
+  </si>
+  <si>
+    <t>Lennukitele</t>
+  </si>
+  <si>
+    <t>Traktoritele</t>
+  </si>
+  <si>
+    <t>Trammidele</t>
+  </si>
+  <si>
+    <t>Alates mis tarbitavast pingest (VAC) katgoriseeritakse elektrimasin kõrgepingelise elektrimasina kategooriasse?</t>
+  </si>
+  <si>
+    <t>≥ 1 000 VAC</t>
+  </si>
+  <si>
+    <t>≥ 100 VAC</t>
+  </si>
+  <si>
+    <t>≥ 10 000 VAC</t>
+  </si>
+  <si>
+    <t>≥ 100 000 VAC</t>
+  </si>
+  <si>
+    <t>Mitu aastat järjest on ABB juhtinud globaalset Distributed Control Systems (DCS) turgu?</t>
+  </si>
+  <si>
+    <t>~20 000 töötajat</t>
+  </si>
+  <si>
+    <t>~10 000 töötajat</t>
+  </si>
+  <si>
+    <t>~30 000 töötajat</t>
+  </si>
+  <si>
+    <t>~40 000 töötajat</t>
+  </si>
+  <si>
+    <t>ABB tööstusautomaatika (PA) osakonna kaks põhilised tegevusvaldkonnad Baltikumis on</t>
+  </si>
+  <si>
+    <t>ABB tööstusautomaatika (PA) osakonnal on globaalselt</t>
+  </si>
+  <si>
+    <t>tööstusautomaatika projektid ja tarkvaraarendus</t>
+  </si>
+  <si>
+    <t>elektriseadmete müük ja tarkvaraarendus</t>
+  </si>
+  <si>
+    <t>tööstusautomaatika projektid ja elektriseadmete müük</t>
+  </si>
+  <si>
+    <t>elektriseadmete müük ja sagedusmuundurite tootmine</t>
+  </si>
+  <si>
+    <t>Mille tootis ABB 1953. aastal esimesena maailmas?</t>
+  </si>
+  <si>
+    <t>Süntetilise teemanti</t>
+  </si>
+  <si>
+    <t>Tööstusliku roboti</t>
+  </si>
+  <si>
+    <t>Transformaatori</t>
+  </si>
+  <si>
+    <t>Pooljuhi</t>
+  </si>
+  <si>
+    <t>1 000 000</t>
+  </si>
+  <si>
+    <t>ABB on müünud tänaseks umbkaudu … elektrisõidukite laadijat.</t>
+  </si>
+  <si>
+    <t>500 000</t>
+  </si>
+  <si>
+    <t>10 000 000</t>
+  </si>
+  <si>
+    <t>1 235 000</t>
+  </si>
+  <si>
+    <t>ABB on Eestis elektriseadmeid müünud alates …. aastast.</t>
+  </si>
+  <si>
+    <t>Mida tähendab "ABB" lühend?</t>
+  </si>
+  <si>
+    <t>ASEA Brown Boveri</t>
+  </si>
+  <si>
+    <t>Andersson Bergström &amp; Boveri</t>
+  </si>
+  <si>
+    <t>Amman Baumgartner &amp; Brucker</t>
+  </si>
+  <si>
+    <t>ATS Brühe &amp; Bern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1233,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1007,7 +1248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1015,11 +1256,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,6 +1355,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,7 +1679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1350,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1475E1-2EDD-4E2F-9383-81D9B08752D1}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1833,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,19 +2448,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" t="s">
         <v>281</v>
       </c>
-      <c r="B24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2141,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>209</v>
       </c>
@@ -2780,6 +3119,422 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1953</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1937</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1985</v>
+      </c>
+      <c r="E38" s="17">
+        <v>2001</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="19">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2789,11 +3544,469 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE87622-85BB-4AEF-A296-25E9CB6BDA5A}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10">
+        <v>1500</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>750</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18">
+        <v>1992</v>
+      </c>
+      <c r="C18">
+        <v>1995</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>2002</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33252635-A11D-41C3-8881-606A1B9AA576}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,19 +4283,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" t="s">
         <v>251</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>252</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>253</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>254</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3096,19 +4309,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
         <v>256</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>257</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>258</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>259</v>
-      </c>
-      <c r="E12" t="s">
-        <v>260</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3122,19 +4335,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
         <v>261</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>262</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>263</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>264</v>
-      </c>
-      <c r="E13" t="s">
-        <v>265</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3148,19 +4361,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
         <v>266</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>267</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" t="s">
         <v>269</v>
-      </c>
-      <c r="E14" t="s">
-        <v>270</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3174,7 +4387,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="6">
         <v>1953</v>
@@ -3200,19 +4413,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
         <v>272</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>273</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>274</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>276</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3226,19 +4439,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
         <v>277</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" t="s">
-        <v>279</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3256,15 +4469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
@@ -3273,6 +4477,15 @@
     <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3471,20 +4684,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
     <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D5D05F-125F-400E-AA3E-24DB51536292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953D76C-183E-4F9B-9032-3A4EAD358101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
@@ -1340,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1360,19 +1360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3152,25 +3146,25 @@
       <c r="A26" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3178,25 +3172,25 @@
       <c r="A27" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3204,25 +3198,25 @@
       <c r="A28" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" t="s">
         <v>229</v>
       </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3230,25 +3224,25 @@
       <c r="A29" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3256,25 +3250,25 @@
       <c r="A30" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" t="s">
         <v>239</v>
       </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3282,25 +3276,25 @@
       <c r="A31" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3308,25 +3302,25 @@
       <c r="A32" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3334,25 +3328,25 @@
       <c r="A33" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3360,25 +3354,25 @@
       <c r="A34" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" t="s">
         <v>254</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3386,51 +3380,51 @@
       <c r="A35" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" t="s">
         <v>261</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" t="s">
         <v>262</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3438,25 +3432,25 @@
       <c r="A37" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3464,25 +3458,25 @@
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="6">
         <v>1953</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="6">
         <v>1937</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="6">
         <v>1985</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="6">
         <v>2001</v>
       </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3490,51 +3484,51 @@
       <c r="A39" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" t="s">
         <v>273</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" t="s">
         <v>275</v>
       </c>
-      <c r="F39" s="13">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F40" s="19">
-        <v>1</v>
-      </c>
-      <c r="G40" s="19">
-        <v>0</v>
-      </c>
-      <c r="H40" s="20">
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
         <v>2</v>
       </c>
     </row>
@@ -3548,7 +3542,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,6 +3603,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3632,6 +3629,9 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3655,6 +3655,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3678,6 +3681,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3701,6 +3707,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3724,6 +3733,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3747,6 +3759,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3770,6 +3785,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3787,11 +3805,14 @@
       <c r="E10">
         <v>3000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3816,6 +3837,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3839,6 +3863,9 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3862,6 +3889,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3885,6 +3915,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3908,6 +3941,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3931,8 +3967,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -3954,8 +3993,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>358</v>
       </c>
@@ -3977,8 +4019,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>359</v>
       </c>
@@ -3993,6 +4038,15 @@
       </c>
       <c r="E19" t="s">
         <v>363</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4469,26 +4523,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4683,26 +4717,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4719,4 +4754,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953D76C-183E-4F9B-9032-3A4EAD358101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA17AD5-E84E-490A-97B6-D6E52EA012B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -657,9 +657,6 @@
     <t>Vastunimelise</t>
   </si>
   <si>
-    <t>Koosnimeline</t>
-  </si>
-  <si>
     <t>Mida hüüdis Archimedes, kui ta avastas et veega saab keha ruumala mõõta?</t>
   </si>
   <si>
@@ -1189,6 +1186,9 @@
   </si>
   <si>
     <t>ATS Brühe &amp; Bern</t>
+  </si>
+  <si>
+    <t>Koosnimelise</t>
   </si>
 </sst>
 </file>
@@ -2442,19 +2442,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" t="s">
         <v>279</v>
-      </c>
-      <c r="B24" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" t="s">
-        <v>282</v>
-      </c>
-      <c r="E24" t="s">
-        <v>280</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2476,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2896,7 @@
         <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2910,19 +2910,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
         <v>187</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>188</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" t="s">
-        <v>191</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2936,19 +2936,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
         <v>193</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>194</v>
-      </c>
-      <c r="E18" t="s">
-        <v>195</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2962,19 +2962,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
         <v>196</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>197</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>198</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>199</v>
-      </c>
-      <c r="E19" t="s">
-        <v>200</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2988,19 +2988,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
         <v>201</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>202</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>203</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>204</v>
-      </c>
-      <c r="E20" t="s">
-        <v>205</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="6">
         <v>80</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="6">
         <v>8</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -3118,19 +3118,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
@@ -3144,19 +3144,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
         <v>215</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>216</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>217</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>218</v>
-      </c>
-      <c r="E26" t="s">
-        <v>219</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3170,19 +3170,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" t="s">
         <v>220</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>221</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>222</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>223</v>
-      </c>
-      <c r="E27" t="s">
-        <v>224</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3196,19 +3196,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
         <v>225</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>226</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>227</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>228</v>
-      </c>
-      <c r="E28" t="s">
-        <v>229</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3222,19 +3222,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>231</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>232</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>233</v>
-      </c>
-      <c r="E29" t="s">
-        <v>234</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3248,19 +3248,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s">
         <v>235</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>236</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>237</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>238</v>
-      </c>
-      <c r="E30" t="s">
-        <v>239</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3274,19 +3274,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" t="s">
         <v>240</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>241</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>242</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>243</v>
-      </c>
-      <c r="E31" t="s">
-        <v>244</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3300,19 +3300,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
         <v>245</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>248</v>
-      </c>
-      <c r="E32" t="s">
-        <v>249</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
         <v>154</v>
@@ -3352,19 +3352,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
         <v>251</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>252</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>253</v>
-      </c>
-      <c r="E34" t="s">
-        <v>254</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3378,19 +3378,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
         <v>255</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>256</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>257</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>258</v>
-      </c>
-      <c r="E35" t="s">
-        <v>259</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3404,19 +3404,19 @@
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" t="s">
         <v>260</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>261</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>262</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>263</v>
-      </c>
-      <c r="E36" t="s">
-        <v>264</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3430,19 +3430,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
         <v>265</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>266</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" t="s">
         <v>268</v>
-      </c>
-      <c r="E37" t="s">
-        <v>269</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="6">
         <v>1953</v>
@@ -3482,19 +3482,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" t="s">
         <v>271</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>272</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>273</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>274</v>
-      </c>
-      <c r="E39" t="s">
-        <v>275</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3508,19 +3508,19 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>277</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F40" s="16">
         <v>1</v>
@@ -3541,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE87622-85BB-4AEF-A296-25E9CB6BDA5A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3583,19 +3583,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
         <v>286</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>289</v>
-      </c>
-      <c r="E2" t="s">
-        <v>290</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3609,19 +3609,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>292</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>293</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>294</v>
-      </c>
-      <c r="E3" t="s">
-        <v>295</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3635,19 +3635,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
         <v>296</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>298</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>299</v>
-      </c>
-      <c r="E4" t="s">
-        <v>300</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3661,19 +3661,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
         <v>301</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>302</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>304</v>
-      </c>
-      <c r="E5" t="s">
-        <v>305</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3687,19 +3687,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
         <v>306</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>307</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>308</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>310</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3713,19 +3713,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
         <v>311</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
         <v>312</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>314</v>
-      </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3739,19 +3739,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
         <v>316</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>317</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>318</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
-      </c>
-      <c r="E8" t="s">
-        <v>320</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3765,19 +3765,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
         <v>321</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>322</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>323</v>
-      </c>
-      <c r="E9" t="s">
-        <v>324</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10">
         <v>1500</v>
@@ -3817,19 +3817,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" t="s">
         <v>327</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>328</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>329</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>330</v>
-      </c>
-      <c r="E11" t="s">
-        <v>331</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3843,19 +3843,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -3895,19 +3895,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
         <v>338</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>339</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>340</v>
-      </c>
-      <c r="E14" t="s">
-        <v>341</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3947,19 +3947,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" t="s">
         <v>348</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>349</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>350</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>351</v>
-      </c>
-      <c r="E16" t="s">
-        <v>352</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3973,19 +3973,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
         <v>354</v>
       </c>
-      <c r="B17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>355</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>356</v>
-      </c>
-      <c r="E17" t="s">
-        <v>357</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18">
         <v>1992</v>
@@ -4025,19 +4025,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="s">
         <v>359</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" t="s">
         <v>362</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" t="s">
-        <v>363</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4103,19 +4103,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4129,19 +4129,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>218</v>
-      </c>
-      <c r="E3" t="s">
-        <v>219</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4155,19 +4155,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
         <v>220</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>221</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>224</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4181,19 +4181,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>227</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>228</v>
-      </c>
-      <c r="E5" t="s">
-        <v>229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
         <v>230</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>231</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>232</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>233</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4233,19 +4233,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
         <v>235</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>236</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>237</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>239</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4259,19 +4259,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
         <v>240</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>241</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>242</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>243</v>
-      </c>
-      <c r="E8" t="s">
-        <v>244</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4285,19 +4285,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>246</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>247</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>248</v>
-      </c>
-      <c r="E9" t="s">
-        <v>249</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
@@ -4337,19 +4337,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
         <v>251</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>252</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>253</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4363,19 +4363,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
         <v>255</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>256</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>257</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>258</v>
-      </c>
-      <c r="E12" t="s">
-        <v>259</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4389,19 +4389,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
         <v>260</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>262</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>263</v>
-      </c>
-      <c r="E13" t="s">
-        <v>264</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4415,19 +4415,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
         <v>265</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>266</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" t="s">
         <v>268</v>
-      </c>
-      <c r="E14" t="s">
-        <v>269</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="6">
         <v>1953</v>
@@ -4467,19 +4467,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" t="s">
         <v>271</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>272</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>273</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>274</v>
-      </c>
-      <c r="E16" t="s">
-        <v>275</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4493,19 +4493,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" t="s">
         <v>276</v>
-      </c>
-      <c r="C17" t="s">
-        <v>277</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4523,6 +4523,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4717,27 +4737,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4754,23 +4773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA17AD5-E84E-490A-97B6-D6E52EA012B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC5E34A-A172-4ABA-BABB-991AFBDA8230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -2476,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE87622-85BB-4AEF-A296-25E9CB6BDA5A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4014,7 @@
         <v>2002</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4523,26 +4523,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4737,26 +4717,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4773,4 +4754,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC5E34A-A172-4ABA-BABB-991AFBDA8230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36DF2B-C15F-492B-AE73-4803E6823811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="360">
   <si>
     <t>Kuidas seda Exceli faili kasutada‽</t>
   </si>
@@ -631,18 +631,6 @@
   </si>
   <si>
     <t>Milline pildil toodud geomeetriline pind oli Vennaskonna esitatud laulus Insener Garini üks lemmikuid?</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Millise laenguga kehad tõmbuvad?</t>
@@ -2442,19 +2430,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
         <v>278</v>
       </c>
-      <c r="B24" t="s">
-        <v>282</v>
-      </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2476,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,17 +2848,17 @@
       <c r="A15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2884,19 +2872,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2910,19 +2898,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
         <v>186</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2936,19 +2924,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2962,19 +2950,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
         <v>195</v>
-      </c>
-      <c r="B19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" t="s">
-        <v>199</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2988,19 +2976,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
         <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" t="s">
-        <v>204</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3014,7 +3002,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -3040,7 +3028,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B22" s="6">
         <v>80</v>
@@ -3066,7 +3054,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B23" s="6">
         <v>8</v>
@@ -3092,7 +3080,7 @@
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -3118,19 +3106,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
@@ -3144,19 +3132,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
         <v>214</v>
-      </c>
-      <c r="B26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" t="s">
-        <v>218</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3170,19 +3158,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
         <v>219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" t="s">
-        <v>223</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3196,19 +3184,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
         <v>224</v>
-      </c>
-      <c r="B28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E28" t="s">
-        <v>228</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3222,19 +3210,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="s">
         <v>229</v>
-      </c>
-      <c r="B29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" t="s">
-        <v>233</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3248,19 +3236,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" t="s">
         <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" t="s">
-        <v>238</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3274,19 +3262,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
         <v>239</v>
-      </c>
-      <c r="B31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" t="s">
-        <v>243</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3300,19 +3288,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
         <v>244</v>
-      </c>
-      <c r="B32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" t="s">
-        <v>248</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3326,7 +3314,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s">
         <v>154</v>
@@ -3352,19 +3340,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3378,19 +3366,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" t="s">
         <v>254</v>
-      </c>
-      <c r="B35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" t="s">
-        <v>258</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3404,19 +3392,19 @@
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" t="s">
         <v>259</v>
-      </c>
-      <c r="B36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" t="s">
-        <v>263</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3430,19 +3418,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
         <v>264</v>
-      </c>
-      <c r="B37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" t="s">
-        <v>268</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3456,7 +3444,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B38" s="6">
         <v>1953</v>
@@ -3482,19 +3470,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" t="s">
         <v>270</v>
-      </c>
-      <c r="B39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" t="s">
-        <v>274</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3508,19 +3496,19 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F40" s="16">
         <v>1</v>
@@ -3541,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE87622-85BB-4AEF-A296-25E9CB6BDA5A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3583,19 +3571,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
         <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" t="s">
-        <v>289</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3609,19 +3597,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" t="s">
-        <v>294</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3635,19 +3623,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
         <v>295</v>
-      </c>
-      <c r="B4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" t="s">
-        <v>299</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3661,19 +3649,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" t="s">
         <v>300</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" t="s">
-        <v>304</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3687,19 +3675,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
         <v>305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" t="s">
-        <v>309</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3713,19 +3701,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s">
         <v>310</v>
-      </c>
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" t="s">
-        <v>314</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3739,19 +3727,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
         <v>315</v>
-      </c>
-      <c r="B8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" t="s">
-        <v>319</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3765,19 +3753,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3791,7 +3779,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B10">
         <v>1500</v>
@@ -3817,19 +3805,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
         <v>326</v>
-      </c>
-      <c r="B11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" t="s">
-        <v>330</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3843,19 +3831,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3869,7 +3857,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -3895,19 +3883,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3921,19 +3909,19 @@
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3947,19 +3935,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" t="s">
         <v>347</v>
-      </c>
-      <c r="B16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" t="s">
-        <v>351</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3973,19 +3961,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" t="s">
         <v>352</v>
-      </c>
-      <c r="C17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" t="s">
-        <v>355</v>
-      </c>
-      <c r="E17" t="s">
-        <v>356</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3999,7 +3987,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B18">
         <v>1992</v>
@@ -4025,19 +4013,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" t="s">
         <v>358</v>
-      </c>
-      <c r="B19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E19" t="s">
-        <v>362</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4103,19 +4091,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4129,19 +4117,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4155,19 +4143,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
         <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" t="s">
-        <v>223</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4181,19 +4169,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" t="s">
         <v>224</v>
-      </c>
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4207,19 +4195,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
         <v>229</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" t="s">
-        <v>233</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4233,19 +4221,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" t="s">
         <v>234</v>
-      </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" t="s">
-        <v>238</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4259,19 +4247,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
         <v>239</v>
-      </c>
-      <c r="B8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" t="s">
-        <v>243</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4285,19 +4273,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
         <v>244</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" t="s">
-        <v>248</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4311,7 +4299,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
@@ -4337,19 +4325,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4363,19 +4351,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
         <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4389,19 +4377,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" t="s">
         <v>259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" t="s">
-        <v>263</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4415,19 +4403,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
         <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" t="s">
-        <v>268</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4441,7 +4429,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B15" s="6">
         <v>1953</v>
@@ -4467,19 +4455,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
         <v>270</v>
-      </c>
-      <c r="B16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" t="s">
-        <v>274</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4493,19 +4481,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4523,6 +4511,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4717,27 +4725,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4754,23 +4761,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36DF2B-C15F-492B-AE73-4803E6823811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E883A-3175-457A-929E-06968EC57F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="364">
   <si>
     <t>Kuidas seda Exceli faili kasutada‽</t>
   </si>
@@ -705,9 +705,6 @@
     <t>Kahe täisarvu summa on 1 ja nende korrutis on −6. Leia nende arvude suurim võimalik vahe.</t>
   </si>
   <si>
-    <t>Õppeveerandi jooksul tuli teha 5 kontrolltesti. Iga testi eest võis saada kuni 100 punkti. Jüri nelja testi keskmine tulemus oli 75 punkti. Mitu punkti võib maksimaalselt olla tema viie testi keskmine tulemus?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ühesugustele kujunditele vastavad ühesugused arvud. Mitme võrra on ruudule vastav arv suurem kolmnurgale vastavast arvust? </t>
   </si>
   <si>
@@ -1177,6 +1174,21 @@
   </si>
   <si>
     <t>Koosnimelise</t>
+  </si>
+  <si>
+    <t>Mis värvi valgust tootis esimene nähtavat valgust tootev LED?</t>
+  </si>
+  <si>
+    <t>Punast</t>
+  </si>
+  <si>
+    <t>Sinist</t>
+  </si>
+  <si>
+    <t>Rohelist</t>
+  </si>
+  <si>
+    <t>Violetset</t>
   </si>
 </sst>
 </file>
@@ -2430,19 +2442,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" t="s">
         <v>274</v>
-      </c>
-      <c r="B24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" t="s">
-        <v>275</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2464,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,7 +2896,7 @@
         <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3026,21 +3038,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="6">
-        <v>80</v>
-      </c>
-      <c r="C22" s="6">
-        <v>90</v>
-      </c>
-      <c r="D22" s="6">
-        <v>85</v>
-      </c>
-      <c r="E22" s="6">
-        <v>75</v>
+        <v>359</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3054,7 +3066,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="6">
         <v>8</v>
@@ -3080,7 +3092,7 @@
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -3106,19 +3118,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
@@ -3132,19 +3144,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
         <v>210</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>211</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>212</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>213</v>
-      </c>
-      <c r="E26" t="s">
-        <v>214</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3158,19 +3170,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
         <v>215</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>216</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>218</v>
-      </c>
-      <c r="E27" t="s">
-        <v>219</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
         <v>220</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>221</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>222</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>223</v>
-      </c>
-      <c r="E28" t="s">
-        <v>224</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3210,19 +3222,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
         <v>225</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>226</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>227</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>228</v>
-      </c>
-      <c r="E29" t="s">
-        <v>229</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3236,19 +3248,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
         <v>230</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>233</v>
-      </c>
-      <c r="E30" t="s">
-        <v>234</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3262,19 +3274,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
         <v>235</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>236</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>237</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>238</v>
-      </c>
-      <c r="E31" t="s">
-        <v>239</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3288,19 +3300,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" t="s">
         <v>240</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>241</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>242</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>243</v>
-      </c>
-      <c r="E32" t="s">
-        <v>244</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3314,7 +3326,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
         <v>154</v>
@@ -3340,19 +3352,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
         <v>246</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>247</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>248</v>
-      </c>
-      <c r="E34" t="s">
-        <v>249</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3366,19 +3378,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
         <v>250</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>251</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>252</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>253</v>
-      </c>
-      <c r="E35" t="s">
-        <v>254</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3392,19 +3404,19 @@
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" t="s">
         <v>255</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>256</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>257</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>258</v>
-      </c>
-      <c r="E36" t="s">
-        <v>259</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3418,19 +3430,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
         <v>260</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>261</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" t="s">
         <v>263</v>
-      </c>
-      <c r="E37" t="s">
-        <v>264</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3444,7 +3456,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="6">
         <v>1953</v>
@@ -3470,19 +3482,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" t="s">
         <v>266</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>267</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>269</v>
-      </c>
-      <c r="E39" t="s">
-        <v>270</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3496,19 +3508,19 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>272</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F40" s="16">
         <v>1</v>
@@ -3571,19 +3583,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>283</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>284</v>
-      </c>
-      <c r="E2" t="s">
-        <v>285</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3597,19 +3609,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
         <v>286</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>288</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>290</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3623,19 +3635,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>292</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>293</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>294</v>
-      </c>
-      <c r="E4" t="s">
-        <v>295</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3649,19 +3661,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
         <v>296</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>297</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>298</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>299</v>
-      </c>
-      <c r="E5" t="s">
-        <v>300</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3675,19 +3687,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
         <v>301</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>302</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>303</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>304</v>
-      </c>
-      <c r="E6" t="s">
-        <v>305</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3701,19 +3713,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
         <v>306</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
         <v>307</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" t="s">
-        <v>310</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3727,19 +3739,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
         <v>311</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>312</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>313</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>314</v>
-      </c>
-      <c r="E8" t="s">
-        <v>315</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
         <v>316</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>317</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>318</v>
-      </c>
-      <c r="E9" t="s">
-        <v>319</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3779,7 +3791,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>1500</v>
@@ -3805,19 +3817,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s">
         <v>322</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>323</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>324</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>325</v>
-      </c>
-      <c r="E11" t="s">
-        <v>326</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3831,19 +3843,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3857,7 +3869,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -3883,19 +3895,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
         <v>333</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>334</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>335</v>
-      </c>
-      <c r="E14" t="s">
-        <v>336</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3909,19 +3921,19 @@
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3935,19 +3947,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" t="s">
         <v>343</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>344</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>345</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>346</v>
-      </c>
-      <c r="E16" t="s">
-        <v>347</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3961,19 +3973,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
         <v>349</v>
       </c>
-      <c r="B17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>350</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>351</v>
-      </c>
-      <c r="E17" t="s">
-        <v>352</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3987,7 +3999,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18">
         <v>1992</v>
@@ -4013,19 +4025,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" t="s">
         <v>354</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" t="s">
         <v>357</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E19" t="s">
-        <v>358</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4091,19 +4103,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>208</v>
-      </c>
-      <c r="E2" t="s">
-        <v>209</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4117,19 +4129,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4143,19 +4155,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>216</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>217</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" t="s">
-        <v>219</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4169,19 +4181,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>221</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>223</v>
-      </c>
-      <c r="E5" t="s">
-        <v>224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4195,19 +4207,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>226</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>228</v>
-      </c>
-      <c r="E6" t="s">
-        <v>229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4221,19 +4233,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
         <v>230</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>232</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>233</v>
-      </c>
-      <c r="E7" t="s">
-        <v>234</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4247,19 +4259,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
         <v>235</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>236</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>237</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>238</v>
-      </c>
-      <c r="E8" t="s">
-        <v>239</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4273,19 +4285,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
         <v>240</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>241</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>242</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>243</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4299,7 +4311,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
@@ -4325,19 +4337,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>247</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>248</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4351,19 +4363,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
         <v>250</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>251</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>252</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>253</v>
-      </c>
-      <c r="E12" t="s">
-        <v>254</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4377,19 +4389,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
         <v>255</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>256</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>257</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>258</v>
-      </c>
-      <c r="E13" t="s">
-        <v>259</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4403,19 +4415,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s">
         <v>260</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>261</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" t="s">
         <v>263</v>
-      </c>
-      <c r="E14" t="s">
-        <v>264</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4429,7 +4441,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="6">
         <v>1953</v>
@@ -4455,19 +4467,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
         <v>266</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>267</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>268</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>269</v>
-      </c>
-      <c r="E16" t="s">
-        <v>270</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4481,19 +4493,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
         <v>271</v>
-      </c>
-      <c r="C17" t="s">
-        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4511,26 +4523,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4725,26 +4717,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4761,4 +4754,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E883A-3175-457A-929E-06968EC57F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A3FA3D-58B4-4875-A834-17E9F85B09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -2476,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2691,7 @@
         <v>146</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>161</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>363</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>213</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>218</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>243</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4523,6 +4523,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4717,27 +4737,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4754,23 +4773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A3FA3D-58B4-4875-A834-17E9F85B09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82570A46-5BA6-44D5-9B72-60E0719DD4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="366">
   <si>
     <t>Kuidas seda Exceli faili kasutada‽</t>
   </si>
@@ -1189,6 +1189,12 @@
   </si>
   <si>
     <t>Violetset</t>
+  </si>
+  <si>
+    <t>pingeintensiivsus tegurina</t>
+  </si>
+  <si>
+    <t>Diferentsiaal võrrand</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2483,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,7 +3231,7 @@
         <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
         <v>226</v>
@@ -3309,7 +3315,7 @@
         <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
         <v>243</v>
@@ -4523,26 +4529,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4737,26 +4723,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4773,4 +4760,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Küsimused.xlsx
+++ b/Küsimused.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Ülikool_reloaded\3. Mehatroonika projekt\IT\vendingprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82570A46-5BA6-44D5-9B72-60E0719DD4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4668DD-EC72-466F-AA4E-9D77B17D0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2944CBCF-6DFD-44E2-8215-CA75CA290995}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="367">
   <si>
     <t>Kuidas seda Exceli faili kasutada‽</t>
   </si>
@@ -63,22 +63,6 @@
     <t>Lisa küsimuse tekst, õige vastus ja kolm valet vastust. Jah/ei küsimused pole veel implementeeritud.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kui soovid küsimuse kõrval kuvada pilti, märgi "1" tulpa "pilt" ja lisa .jpg pildifail kasuta "images". </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pildifaili nimi peab olema vormis "&lt;grupi number&gt;_&lt;küsimuse rea number exceli failis&gt;.jpg"</t>
-    </r>
-  </si>
-  <si>
     <t>Näited:</t>
   </si>
   <si>
@@ -119,9 +103,6 @@
   </si>
   <si>
     <t>1920 x 600</t>
-  </si>
-  <si>
-    <t>Väiksem on ok</t>
   </si>
   <si>
     <t>Kui kustutad küsimuse tablelist, ära unusta pilti kustutamast!</t>
@@ -1196,12 +1177,34 @@
   <si>
     <t>Diferentsiaal võrrand</t>
   </si>
+  <si>
+    <t>NB! Kõige uuema koodi versiooni puhul on kasutuses vaid Grupp2 (Vaaria küsimused) ja Grupp3 (ABB küsimused)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kui soovid küsimuse kõrval kuvada pilti, märgi "1" tulpa "pilt" ja lisa .jpg pildifail kausta "images". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pildifaili nimi peab olema vormis "&lt;grupi number&gt;_&lt;küsimuse rea number exceli failis&gt;.jpg"</t>
+    </r>
+  </si>
+  <si>
+    <t>Väiksem on ok. Kui pilt on suurema resoga, läheb GUI sassi ja värk näeb kole välja</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,6 +1247,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1346,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1373,6 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,137 +1701,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1475E1-2EDD-4E2F-9383-81D9B08752D1}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1850,45 +1865,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6">
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1902,7 +1917,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1928,19 +1943,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1954,19 +1969,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1980,7 +1995,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6">
         <v>70</v>
@@ -2006,19 +2021,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2032,7 +2047,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -2058,7 +2073,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6">
         <v>4374</v>
@@ -2084,19 +2099,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2110,19 +2125,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2136,19 +2151,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2162,19 +2177,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2188,19 +2203,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2214,7 +2229,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="6">
         <v>500</v>
@@ -2240,19 +2255,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2266,19 +2281,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2292,19 +2307,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2318,7 +2333,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="6">
         <v>3</v>
@@ -2344,19 +2359,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2370,7 +2385,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="6">
         <v>19</v>
@@ -2396,7 +2411,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="6">
         <v>8</v>
@@ -2422,19 +2437,19 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2448,19 +2463,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
         <v>273</v>
       </c>
-      <c r="B24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" t="s">
-        <v>275</v>
-      </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2482,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76785A13-83EB-4155-886C-9E5565477D2B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,45 +2515,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2552,19 +2567,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2578,19 +2593,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2604,19 +2619,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2630,19 +2645,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2656,19 +2671,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>138</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2682,19 +2697,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
         <v>142</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>146</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2708,19 +2723,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2734,19 +2749,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2760,19 +2775,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" t="s">
-        <v>161</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2786,19 +2801,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
         <v>162</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>163</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>166</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2812,19 +2827,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
         <v>167</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>168</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2838,19 +2853,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
         <v>172</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" t="s">
-        <v>176</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2864,7 +2879,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2890,19 +2905,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
         <v>178</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>179</v>
       </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2916,19 +2931,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>183</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" t="s">
-        <v>186</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2942,19 +2957,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
         <v>187</v>
       </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>188</v>
-      </c>
-      <c r="D18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" t="s">
-        <v>190</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2968,19 +2983,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
         <v>191</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>192</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>193</v>
-      </c>
-      <c r="D19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" t="s">
-        <v>195</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2994,19 +3009,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
         <v>196</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3020,7 +3035,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -3046,19 +3061,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3072,7 +3087,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" s="6">
         <v>8</v>
@@ -3098,7 +3113,7 @@
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" s="7">
         <v>0.5</v>
@@ -3124,19 +3139,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
@@ -3150,19 +3165,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
         <v>209</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>210</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>211</v>
-      </c>
-      <c r="D26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" t="s">
-        <v>213</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3176,19 +3191,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
         <v>214</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>215</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>216</v>
-      </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>218</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3202,19 +3217,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" t="s">
         <v>219</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>220</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>221</v>
-      </c>
-      <c r="D28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" t="s">
-        <v>223</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3228,19 +3243,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="B29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
         <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" t="s">
-        <v>228</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3254,19 +3269,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
         <v>229</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>230</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>231</v>
-      </c>
-      <c r="D30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" t="s">
-        <v>233</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3280,19 +3295,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
         <v>234</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>235</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>236</v>
-      </c>
-      <c r="D31" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" t="s">
-        <v>238</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3306,19 +3321,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
         <v>239</v>
       </c>
-      <c r="B32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" t="s">
         <v>241</v>
-      </c>
-      <c r="D32" t="s">
-        <v>364</v>
-      </c>
-      <c r="E32" t="s">
-        <v>243</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3332,19 +3347,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
         <v>154</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>156</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3358,19 +3373,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" t="s">
         <v>245</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>246</v>
-      </c>
-      <c r="D34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" t="s">
-        <v>248</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3384,19 +3399,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
         <v>249</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>250</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>251</v>
-      </c>
-      <c r="D35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" t="s">
-        <v>253</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3410,19 +3425,19 @@
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
         <v>254</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>255</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>256</v>
-      </c>
-      <c r="D36" t="s">
-        <v>257</v>
-      </c>
-      <c r="E36" t="s">
-        <v>258</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3436,19 +3451,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
         <v>259</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>261</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" t="s">
-        <v>263</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3462,7 +3477,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B38" s="6">
         <v>1953</v>
@@ -3488,19 +3503,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" t="s">
         <v>265</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>266</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>267</v>
-      </c>
-      <c r="D39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" t="s">
-        <v>269</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3514,19 +3529,19 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>270</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>272</v>
       </c>
       <c r="F40" s="16">
         <v>1</v>
@@ -3548,7 +3563,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,45 +3578,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>281</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>282</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" t="s">
-        <v>284</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3615,19 +3630,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
         <v>285</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>286</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>287</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" t="s">
-        <v>289</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3641,19 +3656,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
         <v>290</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>291</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>292</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" t="s">
-        <v>294</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3667,19 +3682,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
         <v>295</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>297</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>299</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3693,19 +3708,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
         <v>300</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>301</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>302</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" t="s">
-        <v>304</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3719,19 +3734,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
         <v>305</v>
       </c>
-      <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>307</v>
-      </c>
-      <c r="E7" t="s">
-        <v>309</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3745,19 +3760,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
         <v>310</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>311</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>312</v>
-      </c>
-      <c r="D8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" t="s">
-        <v>314</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3771,19 +3786,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s">
         <v>315</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>316</v>
-      </c>
-      <c r="D9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" t="s">
-        <v>318</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3797,7 +3812,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10">
         <v>1500</v>
@@ -3823,19 +3838,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
         <v>321</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>322</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>323</v>
-      </c>
-      <c r="D11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" t="s">
-        <v>325</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3849,19 +3864,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3875,7 +3890,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -3901,19 +3916,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" t="s">
         <v>332</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>333</v>
-      </c>
-      <c r="D14" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" t="s">
-        <v>335</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3927,19 +3942,19 @@
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3953,19 +3968,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" t="s">
         <v>342</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>343</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>344</v>
-      </c>
-      <c r="D16" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16" t="s">
-        <v>346</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3979,19 +3994,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" t="s">
         <v>348</v>
       </c>
-      <c r="B17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>349</v>
-      </c>
-      <c r="D17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" t="s">
-        <v>351</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4005,7 +4020,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B18">
         <v>1992</v>
@@ -4031,19 +4046,19 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" t="s">
         <v>355</v>
-      </c>
-      <c r="E19" t="s">
-        <v>357</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4083,45 +4098,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>206</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4135,19 +4150,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" t="s">
-        <v>213</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4161,19 +4176,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>215</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>216</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4187,19 +4202,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>220</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" t="s">
-        <v>223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4213,19 +4228,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4239,19 +4254,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>230</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>231</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>233</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4265,19 +4280,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
         <v>234</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>235</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" t="s">
-        <v>238</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4291,19 +4306,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
         <v>239</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>240</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>241</v>
-      </c>
-      <c r="D9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" t="s">
-        <v>243</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4317,19 +4332,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
         <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4343,19 +4358,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>246</v>
-      </c>
-      <c r="D11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4369,19 +4384,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
         <v>249</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>250</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>251</v>
-      </c>
-      <c r="D12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" t="s">
-        <v>253</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4395,19 +4410,19 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>256</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4421,19 +4436,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
         <v>259</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>261</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" t="s">
-        <v>263</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4447,7 +4462,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" s="6">
         <v>1953</v>
@@ -4473,19 +4488,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
         <v>265</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>266</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>267</v>
-      </c>
-      <c r="D16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" t="s">
-        <v>269</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4499,19 +4514,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>272</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4529,6 +4544,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A5508CC596D91468A4B201947B3B280" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a927ece4f3ea2a91f30cf304bc7235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="870dce62-94b7-4185-9b0a-7139e4ecfd19" xmlns:ns3="d36953de-bf6f-4d09-a956-94a114c2afc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7e2e7fca528be30e87c80d0fbe5901d" ns2:_="" ns3:_="">
     <xsd:import namespace="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
@@ -4723,27 +4758,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
+    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="870dce62-94b7-4185-9b0a-7139e4ecfd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d36953de-bf6f-4d09-a956-94a114c2afc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E05AB-1B47-4C51-8E09-465A5CFFA283}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4760,23 +4794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D4AF99-232C-48F0-A5C9-BB1B5A9492D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA73119-806C-48D3-8981-20146BD94452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="870dce62-94b7-4185-9b0a-7139e4ecfd19"/>
-    <ds:schemaRef ds:uri="d36953de-bf6f-4d09-a956-94a114c2afc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>